--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="420" windowWidth="28515" windowHeight="12285" activeTab="1"/>
@@ -12,12 +12,12 @@
     <sheet name="extras" sheetId="11" r:id="rId3"/>
     <sheet name="conditionals" sheetId="12" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>type</t>
   </si>
@@ -85,13 +85,16 @@
     <t>relation</t>
   </si>
   <si>
-    <t>deal</t>
-  </si>
-  <si>
-    <t>deal_contacts</t>
-  </si>
-  <si>
-    <t>deal_companys</t>
+    <t>stock-transfer</t>
+  </si>
+  <si>
+    <t>from_agency_id</t>
+  </si>
+  <si>
+    <t>to_agency_id</t>
+  </si>
+  <si>
+    <t>agency</t>
   </si>
 </sst>
 </file>
@@ -720,7 +723,7 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,13 +753,13 @@
         <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -764,13 +767,13 @@
         <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="420" windowWidth="28515" windowHeight="12285" activeTab="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>type</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>agency</t>
+  </si>
+  <si>
+    <t>stock-addition</t>
+  </si>
+  <si>
+    <t>stock-removal</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>product-bridge</t>
   </si>
 </sst>
 </file>
@@ -723,7 +735,7 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,9 +788,48 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="420" windowWidth="28515" windowHeight="12285" activeTab="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="36">
   <si>
     <t>type</t>
   </si>
@@ -97,16 +97,34 @@
     <t>agency</t>
   </si>
   <si>
+    <t>stock-removal</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
     <t>stock-addition</t>
   </si>
   <si>
-    <t>stock-removal</t>
-  </si>
-  <si>
-    <t>parent_id</t>
-  </si>
-  <si>
     <t>product-bridge</t>
+  </si>
+  <si>
+    <t>product_bridge_variation_id</t>
+  </si>
+  <si>
+    <t>variation</t>
+  </si>
+  <si>
+    <t>product-bridge-stock</t>
+  </si>
+  <si>
+    <t>inventory-movement</t>
   </si>
 </sst>
 </file>
@@ -732,10 +750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,141 +780,267 @@
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
+    <row r="35" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
     <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
+    <row r="41" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
     <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
     <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
     </row>
@@ -907,7 +1051,11 @@
     <row r="54" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+    </row>
     <row r="58" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -917,55 +1065,63 @@
     <row r="64" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-    </row>
+    <row r="67" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-    </row>
+    <row r="74" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-    </row>
+    <row r="76" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
+    <row r="81" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
   <si>
     <t>type</t>
   </si>
@@ -113,12 +113,6 @@
   </si>
   <si>
     <t>product-bridge</t>
-  </si>
-  <si>
-    <t>product_bridge_variation_id</t>
-  </si>
-  <si>
-    <t>variation</t>
   </si>
   <si>
     <t>product-bridge-stock</t>
@@ -750,10 +744,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +774,7 @@
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>29</v>
@@ -794,21 +788,21 @@
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>29</v>
@@ -822,16 +816,16 @@
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -839,13 +833,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -853,209 +847,144 @@
         <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
     <row r="33" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
     <row r="35" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
     <row r="41" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-    </row>
+    <row r="43" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-    </row>
+    <row r="49" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+    </row>
     <row r="53" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-    </row>
+    <row r="57" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1068,60 +997,55 @@
     <row r="67" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+    </row>
     <row r="71" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="74" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-    </row>
+    <row r="75" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+    </row>
     <row r="81" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-    </row>
+    <row r="82" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="420" windowWidth="28515" windowHeight="12285" activeTab="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
   <si>
     <t>type</t>
   </si>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t>inventory-movement</t>
+  </si>
+  <si>
+    <t>agency_id</t>
+  </si>
+  <si>
+    <t>relation_cond</t>
+  </si>
+  <si>
+    <t>agency_stock</t>
+  </si>
+  <si>
+    <t>agency_stock_from</t>
   </si>
 </sst>
 </file>
@@ -747,7 +759,7 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,10 +924,62 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
